--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.74192804090301</v>
+        <v>81.96253706766684</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.00505333961421</v>
+        <v>112.1447591478725</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.46492193318848</v>
+        <v>101.4418207309863</v>
       </c>
       <c r="AD2" t="n">
-        <v>57741.92804090301</v>
+        <v>81962.53706766684</v>
       </c>
       <c r="AE2" t="n">
-        <v>79005.05333961421</v>
+        <v>112144.7591478725</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.589267332727278e-06</v>
+        <v>8.491346101953046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.313802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71464.92193318848</v>
+        <v>101441.8207309863</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.57142217177277</v>
+        <v>67.33522381304088</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.03527145351086</v>
+        <v>92.13102384138631</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.77857186217882</v>
+        <v>83.33816823269093</v>
       </c>
       <c r="AD2" t="n">
-        <v>55571.42217177276</v>
+        <v>67335.22381304088</v>
       </c>
       <c r="AE2" t="n">
-        <v>76035.27145351085</v>
+        <v>92131.02384138631</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.817774911477418e-06</v>
+        <v>9.183422520034088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>68778.57186217883</v>
+        <v>83338.16823269094</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.56563980409982</v>
+        <v>71.49252478648131</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.18613917853219</v>
+        <v>97.81922644041936</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.58311115870442</v>
+        <v>88.48349675911656</v>
       </c>
       <c r="AD2" t="n">
-        <v>50565.63980409982</v>
+        <v>71492.52478648131</v>
       </c>
       <c r="AE2" t="n">
-        <v>69186.13917853219</v>
+        <v>97819.22644041936</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.97476669472384e-06</v>
+        <v>1.059495114872047e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.528645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62583.11115870442</v>
+        <v>88483.49675911656</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.24430052386215</v>
+        <v>74.01730041567033</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.4829568325941</v>
+        <v>101.2737358415136</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.66072375946722</v>
+        <v>91.60831263140589</v>
       </c>
       <c r="AD2" t="n">
-        <v>52244.30052386215</v>
+        <v>74017.30041567034</v>
       </c>
       <c r="AE2" t="n">
-        <v>71482.95683259409</v>
+        <v>101273.7358415136</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.035009008265792e-06</v>
+        <v>1.022280904881345e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64660.72375946722</v>
+        <v>91608.31263140589</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.80874397852607</v>
+        <v>69.90172057251277</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.15052091809554</v>
+        <v>95.64261793353994</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.64633085154417</v>
+        <v>86.51462071324379</v>
       </c>
       <c r="AD2" t="n">
-        <v>49808.74397852606</v>
+        <v>69901.72057251277</v>
       </c>
       <c r="AE2" t="n">
-        <v>68150.52091809554</v>
+        <v>95642.61793353994</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.704425642363404e-06</v>
+        <v>1.047583701811577e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.873697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61646.33085154417</v>
+        <v>86514.62071324378</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.02845782909214</v>
+        <v>67.90577766523487</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.66060780284508</v>
+        <v>92.91168079301721</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.34422698799786</v>
+        <v>84.04432038051731</v>
       </c>
       <c r="AD2" t="n">
-        <v>56028.45782909214</v>
+        <v>67905.77766523487</v>
       </c>
       <c r="AE2" t="n">
-        <v>76660.60780284507</v>
+        <v>92911.68079301721</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789381370147957e-06</v>
+        <v>9.055588289854779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69344.22698799786</v>
+        <v>84044.32038051731</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.58487356916768</v>
+        <v>79.09880019274438</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.52665271640316</v>
+        <v>108.2264680164512</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.74586340454445</v>
+        <v>97.89748580579054</v>
       </c>
       <c r="AD2" t="n">
-        <v>59584.87356916768</v>
+        <v>79098.80019274438</v>
       </c>
       <c r="AE2" t="n">
-        <v>81526.65271640316</v>
+        <v>108226.4680164512</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.442274747879672e-06</v>
+        <v>1.018421137328784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.19921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>73745.86340454445</v>
+        <v>97897.48580579054</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.94045393524588</v>
+        <v>65.33583411045376</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.80370875905548</v>
+        <v>89.39537064345963</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.75998637926367</v>
+        <v>80.86360193646011</v>
       </c>
       <c r="AD2" t="n">
-        <v>53940.45393524587</v>
+        <v>65335.83411045375</v>
       </c>
       <c r="AE2" t="n">
-        <v>73803.70875905549</v>
+        <v>89395.37064345962</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.949545764723797e-06</v>
+        <v>9.701041296461948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66759.98637926366</v>
+        <v>80863.60193646011</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.8798652596076</v>
+        <v>66.52583203416306</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.08905277694922</v>
+        <v>91.02357830168107</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.92265896808166</v>
+        <v>82.33641574098523</v>
       </c>
       <c r="AD2" t="n">
-        <v>54879.8652596076</v>
+        <v>66525.83203416306</v>
       </c>
       <c r="AE2" t="n">
-        <v>75089.05277694922</v>
+        <v>91023.57830168107</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906242529096932e-06</v>
+        <v>9.433247627994874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.235677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67922.65896808167</v>
+        <v>82336.41574098523</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.22309906210772</v>
+        <v>69.31604401002815</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.29516864170775</v>
+        <v>94.84126942252252</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.82278763452054</v>
+        <v>85.78975177941788</v>
       </c>
       <c r="AD2" t="n">
-        <v>57223.09906210772</v>
+        <v>69316.04401002816</v>
       </c>
       <c r="AE2" t="n">
-        <v>78295.16864170774</v>
+        <v>94841.26942252251</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.648282268498025e-06</v>
+        <v>8.659397310622917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70822.78763452054</v>
+        <v>85789.75177941789</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.73065231071286</v>
+        <v>63.85122530837279</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.14840480368943</v>
+        <v>87.36406338413562</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.26266231016351</v>
+        <v>79.0261597910077</v>
       </c>
       <c r="AD2" t="n">
-        <v>52730.65231071286</v>
+        <v>63851.22530837279</v>
       </c>
       <c r="AE2" t="n">
-        <v>72148.40480368942</v>
+        <v>87364.06338413562</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04201726729016e-06</v>
+        <v>1.010671027596775e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65262.66231016351</v>
+        <v>79026.1597910077</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.11795091470169</v>
+        <v>72.23785672785328</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.9418356063038</v>
+        <v>98.83902248432857</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.26668498003635</v>
+        <v>89.40596489988815</v>
       </c>
       <c r="AD2" t="n">
-        <v>51117.95091470169</v>
+        <v>72237.85672785329</v>
       </c>
       <c r="AE2" t="n">
-        <v>69941.83560630379</v>
+        <v>98839.02248432857</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.016132211536435e-06</v>
+        <v>1.049406228499381e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.444010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63266.68498003634</v>
+        <v>89405.96489988815</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.23173836917896</v>
+        <v>70.76250877496669</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.72928050458202</v>
+        <v>96.82038632743209</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.16985443539075</v>
+        <v>87.57998454463159</v>
       </c>
       <c r="AD2" t="n">
-        <v>50231.73836917897</v>
+        <v>70762.50877496669</v>
       </c>
       <c r="AE2" t="n">
-        <v>68729.28050458203</v>
+        <v>96820.38632743209</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.846629508593458e-06</v>
+        <v>1.053587352161423e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.684895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62169.85443539075</v>
+        <v>87579.98454463159</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.89819888153173</v>
+        <v>88.34999005008143</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.95535823171662</v>
+        <v>120.8843541129453</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.13365386716849</v>
+        <v>109.347321018694</v>
       </c>
       <c r="AD2" t="n">
-        <v>59898.19888153172</v>
+        <v>88349.99005008143</v>
       </c>
       <c r="AE2" t="n">
-        <v>81955.35823171661</v>
+        <v>120884.3541129453</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.971909872640893e-06</v>
+        <v>9.447294728759833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.82421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>74133.6538671685</v>
+        <v>109347.321018694</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.35885192023164</v>
+        <v>65.88219772993611</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.37617934052909</v>
+        <v>90.14292945149671</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.27782117190911</v>
+        <v>81.53981478106375</v>
       </c>
       <c r="AD2" t="n">
-        <v>54358.85192023164</v>
+        <v>65882.1977299361</v>
       </c>
       <c r="AE2" t="n">
-        <v>74376.1793405291</v>
+        <v>90142.92945149672</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.94773671817909e-06</v>
+        <v>9.601469989841657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>67277.82117190911</v>
+        <v>81539.81478106376</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.64360194277729</v>
+        <v>68.63052215545264</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.50227511743164</v>
+        <v>93.90330817800299</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.10556675536806</v>
+        <v>84.94130823963815</v>
       </c>
       <c r="AD2" t="n">
-        <v>56643.60194277728</v>
+        <v>68630.52215545264</v>
       </c>
       <c r="AE2" t="n">
-        <v>77502.27511743164</v>
+        <v>93903.30817800299</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.71515342659598e-06</v>
+        <v>8.847477249359274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70105.56675536805</v>
+        <v>84941.30823963815</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.08370999899284</v>
+        <v>107.4790375426721</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.5740650645137</v>
+        <v>147.0575608063096</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.11647008295068</v>
+        <v>133.0225935995782</v>
       </c>
       <c r="AD2" t="n">
-        <v>80083.70999899284</v>
+        <v>107479.0375426721</v>
       </c>
       <c r="AE2" t="n">
-        <v>109574.0650645137</v>
+        <v>147057.5608063096</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.201885696007686e-06</v>
+        <v>8.007673136109307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99116.47008295069</v>
+        <v>133022.5935995782</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.5838515493814</v>
+        <v>73.04115329747474</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.57930140875762</v>
+        <v>99.9381282898276</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.84331194099305</v>
+        <v>90.40017358991537</v>
       </c>
       <c r="AD2" t="n">
-        <v>51583.8515493814</v>
+        <v>73041.15329747474</v>
       </c>
       <c r="AE2" t="n">
-        <v>70579.30140875762</v>
+        <v>99938.1282898276</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.061926293055319e-06</v>
+        <v>1.042394108150729e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>63843.31194099305</v>
+        <v>90400.17358991537</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.33135786000734</v>
+        <v>64.59275469733178</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.97031663749222</v>
+        <v>88.37865660807662</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.00613203210892</v>
+        <v>79.94392166164663</v>
       </c>
       <c r="AD2" t="n">
-        <v>53331.35786000735</v>
+        <v>64592.75469733179</v>
       </c>
       <c r="AE2" t="n">
-        <v>72970.31663749221</v>
+        <v>88378.65660807662</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.003327890433827e-06</v>
+        <v>9.912513722567388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66006.13203210893</v>
+        <v>79943.92166164663</v>
       </c>
     </row>
   </sheetData>
